--- a/data/RT2—Suek.xlsx
+++ b/data/RT2—Suek.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Dropbox\SUEK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Studium\5. Semester (klein)\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC622C3C-B6B7-4DEC-ABA8-6EBEAB772488}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C845717-E164-4236-A6F6-D9E2D5AED05D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20082,7 +20082,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9290137" cy="6002055"/>
+    <xdr:ext cx="9292167" cy="6000750"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
@@ -20542,8 +20542,8 @@
   </sheetPr>
   <dimension ref="A2:AH283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6:O255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
